--- a/src/main/resources/com/auxiliary/http/接口工具excel模板.xlsx
+++ b/src/main/resources/com/auxiliary/http/接口工具excel模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\eclipse_worksapce\tools_for_java\autest\src\main\resources\com\auxiliary\http\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工具\eclipse_workspace\java_code\autest\src\main\resources\com\auxiliary\http\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529DB3B3-55C0-4D54-805F-A9E9ED978463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10C3D4B-6D8A-415F-A36B-34B81CF1B8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="环境" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>环境名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>执行次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符集编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -914,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E23A6E-B4CA-4CFF-9C08-ECC7F8BC98D1}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -944,21 +948,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233A8D4B-D29D-4748-BD08-C0AF547BE103}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -966,12 +971,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1006,22 +1015,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B1950C-DFCF-4CDF-96CB-14223BB5892A}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1029,9 +1039,12 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
